--- a/Projects/CCRU/Data/KPIs_2020/POS_VALIDATION/OUTPUT/Benchmark 2020.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/POS_VALIDATION/OUTPUT/Benchmark 2020.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="90">
   <si>
     <t>KPI Code</t>
   </si>
@@ -321,16 +321,8 @@
     <t>Tea Shelf: Shelf share</t>
   </si>
   <si>
-    <t>Combo, 
-Combo Other</t>
-  </si>
-  <si>
     <t>Impulse Activation,
 Display Burn parasite</t>
-  </si>
-  <si>
-    <t>Combo, 
-Combo Other(PoS 2020 - IC Petrol - Medium, PoS 2020 - IC Petrol - Large)</t>
   </si>
   <si>
     <t>Juice (JNSD) Availability,
@@ -774,7 +766,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.1976048</v>
+        <v>2.454546</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -791,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.1976048</v>
+        <v>1.022223</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -808,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>1.1976048</v>
+        <v>0.755</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -825,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.1976048</v>
+        <v>0.752</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -842,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>1.1976048</v>
+        <v>0.744286</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -859,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1.1976048</v>
+        <v>0.745264</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -876,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.1976048</v>
+        <v>0.78353</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -893,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1.1976048</v>
+        <v>1.470589</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -910,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1.1976048</v>
+        <v>0.769231</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -960,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.38889</v>
+        <v>1.666667</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -977,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.38889</v>
+        <v>0.869566</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -997,7 +989,7 @@
         <v>53</v>
       </c>
       <c r="C4">
-        <v>1.38889</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1017,7 +1009,7 @@
         <v>54</v>
       </c>
       <c r="C5">
-        <v>1.38889</v>
+        <v>0.526316</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1034,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>1.38889</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1051,7 +1043,7 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>1.38889</v>
+        <v>0.652174</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1101,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.38889</v>
+        <v>1.375</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1118,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.38889</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1135,7 +1127,7 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>1.38889</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1152,7 +1144,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>1.38889</v>
+        <v>2.5</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1168,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1202,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.18889</v>
+        <v>1.6875</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1219,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.18889</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1236,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>1.18889</v>
+        <v>2.5</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1253,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.18889</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1270,7 +1262,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>1.18889</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1287,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1.18889</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1304,7 +1296,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.18889</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1315,13 +1307,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>1.18889</v>
+        <v>0.555556</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1329,58 +1321,38 @@
       <c r="E9" t="s">
         <v>78</v>
       </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>1.18889</v>
+        <v>0.9375</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>1.18889</v>
+        <v>1.875</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>1.18889</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1425,7 +1397,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.111111</v>
+        <v>1.59091</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1442,13 +1414,13 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.111111</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1459,13 +1431,13 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>1.111111</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1476,7 +1448,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.111111</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1493,7 +1465,7 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>1.111111</v>
+        <v>1.153847</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1543,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.111111</v>
+        <v>1.59091</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1560,13 +1532,13 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.111111</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1577,13 +1549,13 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>1.111111</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1594,7 +1566,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.111111</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1611,7 +1583,7 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>1.111111</v>
+        <v>1.153847</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1661,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.176471</v>
+        <v>0.733334</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1678,7 +1650,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.176471</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1695,13 +1667,13 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>1.176471</v>
+        <v>1.875</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1712,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.176471</v>
+        <v>0.833334</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1729,13 +1701,13 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>1.176471</v>
+        <v>1.25</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1777,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1822,10 +1794,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1845,7 +1817,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1862,10 +1834,10 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.1976048</v>
+        <v>2.454546</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1926,7 +1898,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.1976048</v>
+        <v>1.022223</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1943,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>1.1976048</v>
+        <v>0.755</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1960,7 +1932,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.1976048</v>
+        <v>0.752</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1977,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>1.1976048</v>
+        <v>0.744286</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1994,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1.1976048</v>
+        <v>0.745264</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2011,7 +1983,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.1976048</v>
+        <v>0.78353</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2028,7 +2000,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1.1976048</v>
+        <v>1.470589</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2045,7 +2017,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1.1976048</v>
+        <v>0.769231</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2095,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.123596</v>
+        <v>1.833334</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2112,7 +2084,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.123596</v>
+        <v>0.818182</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2129,7 +2101,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>1.123596</v>
+        <v>0.877334</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2146,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.123596</v>
+        <v>1.056</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2163,7 +2135,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>1.123596</v>
+        <v>0.8848</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2180,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1.123596</v>
+        <v>0.889231</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2197,7 +2169,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.123596</v>
+        <v>1.132308</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2214,7 +2186,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1.123596</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2234,7 +2206,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1.123596</v>
+        <v>0.357143</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2251,7 +2223,7 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1.123596</v>
+        <v>0.625</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2304,7 +2276,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.123596</v>
+        <v>1.833334</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2321,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.123596</v>
+        <v>0.818182</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2338,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>1.123596</v>
+        <v>0.877334</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2355,7 +2327,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.123596</v>
+        <v>1.056</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2372,7 +2344,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>1.123596</v>
+        <v>0.8848</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2389,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1.123596</v>
+        <v>0.889231</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2406,7 +2378,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.123596</v>
+        <v>1.132308</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2423,7 +2395,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1.123596</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2440,7 +2412,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1.123596</v>
+        <v>0.357143</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2457,7 +2429,7 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1.123596</v>
+        <v>0.625</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2510,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.123596</v>
+        <v>1.833334</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2527,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.123596</v>
+        <v>0.818182</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2544,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>1.123596</v>
+        <v>0.877334</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2561,7 +2533,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.123596</v>
+        <v>1.056</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2578,7 +2550,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>1.123596</v>
+        <v>0.8848</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2595,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1.123596</v>
+        <v>0.889231</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2612,7 +2584,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.123596</v>
+        <v>1.132308</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2629,7 +2601,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1.123596</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2646,7 +2618,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1.123596</v>
+        <v>0.357143</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2663,7 +2635,7 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1.123596</v>
+        <v>0.625</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2716,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.200048</v>
+        <v>1.4</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2733,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.200048</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2750,7 +2722,7 @@
         <v>53</v>
       </c>
       <c r="C4">
-        <v>1.200048</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2767,7 +2739,7 @@
         <v>54</v>
       </c>
       <c r="C5">
-        <v>1.200048</v>
+        <v>1.333334</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2817,7 +2789,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.200048</v>
+        <v>1.296297</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2834,7 +2806,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.200048</v>
+        <v>1.086957</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2851,7 +2823,7 @@
         <v>53</v>
       </c>
       <c r="C4">
-        <v>1.200048</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2868,7 +2840,7 @@
         <v>54</v>
       </c>
       <c r="C5">
-        <v>1.200048</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2888,7 +2860,7 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>1.200048</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2941,7 +2913,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.38889</v>
+        <v>1.944445</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2958,7 +2930,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.38889</v>
+        <v>1.25</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2975,7 +2947,7 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>1.38889</v>
+        <v>0.333334</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2992,7 +2964,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.38889</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -3012,7 +2984,7 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>1.38889</v>
+        <v>1.25</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -3062,7 +3034,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.38889</v>
+        <v>1.346154</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -3079,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.38889</v>
+        <v>0.925926</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -3096,7 +3068,7 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>1.38889</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -3116,7 +3088,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.38889</v>
+        <v>1.363637</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -3136,7 +3108,7 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>1.38889</v>
+        <v>1.363637</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>

--- a/Projects/CCRU/Data/KPIs_2020/POS_VALIDATION/OUTPUT/Benchmark 2020.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/POS_VALIDATION/OUTPUT/Benchmark 2020.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="84">
   <si>
     <t>KPI Code</t>
   </si>
@@ -179,21 +179,13 @@
 SSD Display 2d,
 SSD Display 3d,
 Juice Display 1st,
-Tea-Rich Display
-Tea Display</t>
+Tea-Rich Display</t>
   </si>
   <si>
     <t>Cooler: Max 15,
-Cooler: Merch Priority STD,
+Cooler: Merch Priorty STD,
 Cooler: Prime Position,
 Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t>Tea-Rich Display
-Tea Display(PoS 2020 - MT ConvBig - CAP, PoS 2020 - MT ConvBig - NKA)</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priority STD(PoS 2020 - MT ConvBig - CAP, PoS 2020 - MT ConvBig - NKA)</t>
   </si>
   <si>
     <t>SSD Display 1st,
@@ -203,17 +195,11 @@
 Tea Display</t>
   </si>
   <si>
-    <t>Cooler: Merch Priority STD(PoS 2020 - MT ConvBig - REG)</t>
-  </si>
-  <si>
     <t>SSD Display 1st,
 SSD Display 2d,
 Juice Display 1st</t>
   </si>
   <si>
-    <t>Cooler: Merch Priority STD(PoS 2020 - MT ConvSmall - CAP, PoS 2020 - MT ConvSmall - REG, PoS 2020 - MT ConvSmall - NKA)</t>
-  </si>
-  <si>
     <t>STANDARD 16</t>
   </si>
   <si>
@@ -249,7 +235,7 @@
 Combo: Other</t>
   </si>
   <si>
-    <t>Cooler is visible,
+    <t>Cooler is Visible,
 Cooler: w/o other products,
 Cooler: Max 26</t>
   </si>
@@ -257,40 +243,24 @@
     <t>Combo: Other(PoS 2020 - IC BarNightClub)</t>
   </si>
   <si>
-    <t>Cooler is visible(PoS 2020 - IC BarNightClub, PoS 2020 - IC CoffeeShop)</t>
-  </si>
-  <si>
     <t>Combo,
 Impulse Activation</t>
   </si>
   <si>
-    <t>Cooler: Max 26
+    <t>Cooler: Max 26,
 Cooler: Prime Position,
 Cooler: w/o other products</t>
   </si>
   <si>
-    <t>Cooler: Max 26
-Cooler: Prime Position(PoS 2020 - IC FastFood)</t>
-  </si>
-  <si>
-    <t>Combo, 
-Combo: Other, 
+    <t>Combo,
+Combo: Other,
 Combo2,
 Impulse Activation</t>
   </si>
   <si>
-    <t>Combo, 
-Combo: Other, 
-Combo2(PoS 2020 - IC Cinema)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 26
-Cooler: Prime Position(PoS 2020 - IC Cinema)</t>
-  </si>
-  <si>
-    <t>Combo1, 
-Combo2, 
-Combo3, 
+    <t>Combo1,
+Combo2,
+Combo3,
 Assortment Reminder</t>
   </si>
   <si>
@@ -303,12 +273,6 @@
   </si>
   <si>
     <t>Tea Availability(PoS 2020 - IC QSR - GastroMarket)</t>
-  </si>
-  <si>
-    <t>Combo1, 
-Combo2, 
-Combo3, 
-Assortment Reminder(PoS 2020 - IC QSR - FoodCourt, PoS 2020 - IC QSR - Classic, PoS 2020 - IC QSR - GastroMarket)</t>
   </si>
   <si>
     <t>Cooler: w/o other products,
@@ -348,6 +312,15 @@
 Cooler: Max 26,
 Cooler: Merch Priorty STD,
 Cooler: w/o FC packs</t>
+  </si>
+  <si>
+    <t>SSD Shelf: share and number of facings</t>
+  </si>
+  <si>
+    <t>Water Shelf: share and number of facings</t>
+  </si>
+  <si>
+    <t>Juice Shelf: share and number of facings</t>
   </si>
   <si>
     <t>Juice Display</t>
@@ -766,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>2.454546</v>
+        <v>1.197605</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -783,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.022223</v>
+        <v>1.197605</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -800,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.755</v>
+        <v>1.197605</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -817,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.752</v>
+        <v>1.197605</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -834,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.744286</v>
+        <v>1.197605</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -851,7 +824,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.745264</v>
+        <v>1.197605</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -868,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.78353</v>
+        <v>1.197605</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -885,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1.470589</v>
+        <v>1.197605</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -902,7 +875,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.769231</v>
+        <v>1.197605</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -952,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -969,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.869566</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -978,44 +951,41 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.526316</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1043,13 +1013,13 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>0.652174</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1110,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1127,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1144,13 +1114,13 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.6875</v>
+        <v>1.06383</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1211,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>1.06383</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1228,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>1.06383</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1245,7 +1215,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1.06383</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1262,13 +1232,13 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.06383</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1279,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.06383</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1296,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>1.06383</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1307,19 +1277,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>0.555556</v>
+        <v>1.06383</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1330,7 +1300,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.9375</v>
+        <v>1.06383</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1347,13 +1317,13 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1.875</v>
+        <v>1.06383</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.59091</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1420,24 +1390,24 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1465,13 +1435,13 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>1.153847</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1485,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.59091</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1538,24 +1508,24 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1583,13 +1553,13 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>1.153847</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>0.733334</v>
+        <v>1.02040816326531</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1650,7 +1620,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.02040816326531</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1667,13 +1637,13 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>1.875</v>
+        <v>1.02040816326531</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1684,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.833334</v>
+        <v>1.02040816326531</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1701,13 +1671,64 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>1.02040816326531</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1.02040816326531</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1.02040816326531</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1.02040816326531</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1798,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1794,10 +1815,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1817,7 +1838,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1834,10 +1855,10 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>2.454546</v>
+        <v>1.197605</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1898,7 +1919,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.022223</v>
+        <v>1.197605</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1915,7 +1936,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.755</v>
+        <v>1.197605</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1932,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.752</v>
+        <v>1.197605</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1949,7 +1970,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.744286</v>
+        <v>1.197605</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1966,7 +1987,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.745264</v>
+        <v>1.197605</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1983,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.78353</v>
+        <v>1.197605</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2000,7 +2021,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1.470589</v>
+        <v>1.197605</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2017,7 +2038,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.769231</v>
+        <v>1.197605</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2067,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.833334</v>
+        <v>1.117317</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2084,7 +2105,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.818182</v>
+        <v>1.117317</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2101,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.877334</v>
+        <v>1.117317</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2118,7 +2139,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.056</v>
+        <v>1.117317</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2135,7 +2156,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.8848</v>
+        <v>1.117317</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2152,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.889231</v>
+        <v>1.117317</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2169,7 +2190,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.132308</v>
+        <v>1.117317</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2186,16 +2207,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>1.117317</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2206,7 +2224,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.357143</v>
+        <v>1.117317</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2223,16 +2241,13 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>0.625</v>
+        <v>1.117317</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.833334</v>
+        <v>1.117317</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2293,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.818182</v>
+        <v>1.117317</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2310,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.877334</v>
+        <v>1.117317</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2327,7 +2342,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.056</v>
+        <v>1.117317</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2344,7 +2359,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.8848</v>
+        <v>1.117317</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2361,7 +2376,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.889231</v>
+        <v>1.117317</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2378,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.132308</v>
+        <v>1.117317</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2395,13 +2410,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>1.117317</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2412,7 +2427,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.357143</v>
+        <v>1.117317</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2429,16 +2444,13 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>0.625</v>
+        <v>1.117317</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.833334</v>
+        <v>1.117317</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2499,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.818182</v>
+        <v>1.117317</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2516,7 +2528,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.877334</v>
+        <v>1.117317</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2533,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1.056</v>
+        <v>1.117317</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2550,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.8848</v>
+        <v>1.117317</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2567,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.889231</v>
+        <v>1.117317</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2584,7 +2596,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>1.132308</v>
+        <v>1.117317</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2601,13 +2613,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>1.117317</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2618,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.357143</v>
+        <v>1.117317</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2635,16 +2647,13 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>0.625</v>
+        <v>1.117317</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2705,47 +2714,47 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>1.333334</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2798,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.296297</v>
+        <v>1.15</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2806,50 +2815,50 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.086957</v>
+        <v>1.15</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>1.15</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2857,19 +2866,16 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2919,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.944445</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2930,7 +2936,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2941,19 +2947,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>0.333334</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2964,16 +2970,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2981,10 +2984,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -3034,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.346154</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -3051,7 +3054,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.925926</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -3062,22 +3065,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3088,16 +3088,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.363637</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,10 +3102,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>1.363637</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
